--- a/biology/Botanique/Lindera_benzoin/Lindera_benzoin.xlsx
+++ b/biology/Botanique/Lindera_benzoin/Lindera_benzoin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindera benzoin est un arbuste de la famille des Lauracées originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste large et robuste, pouvant atteindre 5 m de haut, qui se couvre de fleurs vert-jaune au début du printemps, avant l'apparition des feuilles.
 Les feuilles sont alternes, simples, ovales ou obovales, de 6 à 15 cm de long et de 2 à 6 de large.
@@ -556,7 +570,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est très aromatique : trois essences odorantes peuvent en être extraites. La première de l'écorce ressemble au « wintergreen » (des Ericacées, du genre Gaultheria, ou aussi Betula). La deuxième peut être extraite des noyaux des fruits et ressemble au camphre (genre Cinnamomum). La troisième, provenant des feuilles, ressemble à la lavande.
 </t>
